--- a/biology/Histoire de la zoologie et de la botanique/Theodore_James_Spilman/Theodore_James_Spilman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodore_James_Spilman/Theodore_James_Spilman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Theodore James Spilman, né le 19 mars 1925 à Louisville (Kentucky) et mort le 22 septembre 1996, est un entomologiste américain[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theodore James Spilman, né le 19 mars 1925 à Louisville (Kentucky) et mort le 22 septembre 1996, est un entomologiste américain,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) T.J. Spilman, « Bredin-Archbold-Smithsonian biological survey of Dominica: Bostrichidae, Inopeplidae, Lagriidae, Lyctidae, Lymexylonidae, Melandryidae, Monommidae, Rhipiceridae, and Rhipiphoridae (Coleoptera) », Smithsonian Contributions to Zoology, Washington D.C., Smithsonian Institution Press, vol. 70,‎ 1971, p. 1-10 (ISSN 0081-0282, DOI 10.5479/si.00810282.70, lire en ligne [PDF])
 (en) Theodore James Spilman, « Vignettes of the Presidents of the Entomological Society of America, 1889-1989 », Bulletin of the Entomological Society of America, Annapolis (Maryland), Entomological Society of America (ESA), vol. 35, no 3,‎ 1er septembre 1989, p. 33–65 (ISSN 0013-8754, DOI 10.1093/besa/35.3.33).</t>
